--- a/example/excelp_demo.xlsx
+++ b/example/excelp_demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11160"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>1121</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Uuid</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Fl</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>Time2</t>
+  </si>
+  <si>
+    <t>DateTime2</t>
   </si>
   <si>
     <t>2024-01-24</t>
@@ -96,13 +117,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -569,141 +596,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,69 +1264,90 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.3846153846154" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9230769230769" style="1"/>
-    <col min="4" max="4" width="22.2692307692308" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.925" style="1"/>
+    <col min="4" max="4" width="22.2666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69230769230769" style="1"/>
+    <col min="7" max="7" width="9.69166666666667" style="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.7788461538462" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.9230769230769" style="1"/>
-    <col min="11" max="11" width="19.8653846153846" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.775" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.925" style="1"/>
+    <col min="11" max="11" width="19.8666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1304,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>14</v>
@@ -1316,7 +1367,7 @@
         <v>40496</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>1.22</v>
@@ -1327,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>123</v>
@@ -1336,7 +1387,7 @@
         <v>34.00454</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1">
         <v>34.00454</v>
@@ -1347,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>22</v>
@@ -1361,10 +1412,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
